--- a/rz-batch-client/机构跑批入参_模板/机构跑批入参_模板_手机实名认证1.xlsx
+++ b/rz-batch-client/机构跑批入参_模板/机构跑批入参_模板_手机实名认证1.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t xml:space="preserve">身份证号 </t>
-  </si>
-  <si>
     <t xml:space="preserve">姓名 </t>
   </si>
   <si>
@@ -52,6 +49,10 @@
   </si>
   <si>
     <t>范燕军3</t>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -464,9 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -478,46 +477,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
